--- a/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
+++ b/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lukasz" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>Dag:</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Vrijdag: Hardware &amp; Software lijst</t>
+  </si>
+  <si>
+    <t>Maandag: Templates Html</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,7 +1907,7 @@
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="32" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
@@ -2376,6 +2379,69 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -2384,69 +2450,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
+++ b/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Lukasz" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>Dag:</t>
   </si>
@@ -225,13 +225,31 @@
     <t>Vrijdag: Hardware &amp; Software lijst</t>
   </si>
   <si>
-    <t>Maandag: Templates Html</t>
+    <t xml:space="preserve">Woensdag: </t>
+  </si>
+  <si>
+    <t>Dinsdag: Repo aangemaakt voor de site.</t>
+  </si>
+  <si>
+    <t>Maandag: Templates Html van de site.</t>
+  </si>
+  <si>
+    <t>Donderdag: Migrations maken voor de database.</t>
+  </si>
+  <si>
+    <t>Vrijdag: Structuur van de site verbeteren.</t>
+  </si>
+  <si>
+    <t>Zaterdag: Models en Controllers maken.</t>
+  </si>
+  <si>
+    <t>Zondag: Front-end netjes weergeven.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,17 +723,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -723,44 +732,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
@@ -768,6 +741,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -777,38 +783,64 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1094,1346 +1126,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:J56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="O6" s="15" t="s">
+      <c r="K6" s="8"/>
+      <c r="O6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="47"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="O7" s="19" t="s">
+      <c r="I7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>3</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="O8" s="19" t="s">
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="14"/>
-      <c r="O9" s="19" t="s">
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="O9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="O10" s="22" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="O10" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="49"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="14"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="27">
+      <c r="D16" s="41"/>
+      <c r="E16" s="12">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>38</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="14"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="14"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="35" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="35" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="35" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="35" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="42" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="32" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="35" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="35" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="39" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="35" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="35" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="31" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="32" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="35" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="35" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="39" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="35" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="35" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="42" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="44"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="31" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="32" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="35" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="37"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="35" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="39" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="35" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="37"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="35" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="37"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="42" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="44"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="31" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="32" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="30"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="35" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C64" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="30"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="37"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="35" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="35" t="s">
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="35" t="s">
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="42" t="s">
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="44"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C64" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="32" t="s">
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="27"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C73" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="34"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="35" t="s">
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="30"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="35" t="s">
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="37"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="35" t="s">
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="24"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="37"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="35" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="42" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="44"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C73" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="32" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="27"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C82" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="34"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="35" t="s">
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="30"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="37"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="35" t="s">
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="37"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="35" t="s">
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="24"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="37"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="35" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="37"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="42" t="s">
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="44"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C82" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="32" t="s">
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="27"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C91" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="34"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="35" t="s">
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="30"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="37"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="35" t="s">
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="37"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="35" t="s">
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="24"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="37"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="35" t="s">
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="37"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="42" t="s">
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="44"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C91" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="34"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="37"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="37"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="37"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="37"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="44"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C16:D16"/>
@@ -2442,14 +2454,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
+++ b/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lukasz" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Dag:</t>
   </si>
@@ -244,12 +244,36 @@
   </si>
   <si>
     <t>Zondag: Front-end netjes weergeven.</t>
+  </si>
+  <si>
+    <t>Woensdag:  Code verbeterd, met Youssef applicatie getest.</t>
+  </si>
+  <si>
+    <t>Vrijdag: Begin van middlewares met Youssef</t>
+  </si>
+  <si>
+    <t>Zaterdag: Middlewares klaar, code verbeterd, customer show aangepast</t>
+  </si>
+  <si>
+    <t>Maandag: Blade templeting aangepast</t>
+  </si>
+  <si>
+    <t>Dinsdag: Routes gemaakt</t>
+  </si>
+  <si>
+    <t>Woensdag: Mensen helpen</t>
+  </si>
+  <si>
+    <t>Donderdag: Mensen helpen</t>
+  </si>
+  <si>
+    <t>Vrijdag: Mensen helpen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,6 +771,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -756,6 +782,33 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -765,81 +818,52 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1126,11 +1150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,11 +1163,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1202,11 +1226,11 @@
       <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="36"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -1259,17 +1283,17 @@
       <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
@@ -1290,17 +1314,17 @@
       <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
@@ -1328,11 +1352,11 @@
         <v>6</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
@@ -1362,7 +1386,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="49"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
@@ -1413,10 +1437,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="12">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>67</v>
@@ -1469,100 +1493,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1593,100 +1617,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -1717,100 +1741,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="27"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -1841,100 +1865,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="23"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="27"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -1965,92 +1989,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="30"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="23"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="24"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="23"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="23"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="27"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="16" t="s">
@@ -2065,88 +2089,88 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="30"/>
+      <c r="C65" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21"/>
+      <c r="C66" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="23"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
+      <c r="C67" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="23"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="24"/>
+      <c r="C68" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="21"/>
+      <c r="C69" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="27"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="16" t="s">
@@ -2161,88 +2185,88 @@
       <c r="J73" s="8"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="30"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="23"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="24"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="23"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="23"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="27"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="16" t="s">
@@ -2257,88 +2281,88 @@
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="30"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="29"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="23"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="23"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="24"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="21"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="23"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="23"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="27"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="16" t="s">
@@ -2353,91 +2377,154 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="30"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="29"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="21"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="23"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="21"/>
+      <c r="C94" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="23"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="24"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="21"/>
+      <c r="C96" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="23"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="21"/>
+      <c r="C97" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="23"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="27"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -2446,69 +2533,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
+++ b/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6768" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lukasz" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
   <si>
     <t>Dag:</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>Vrijdag: Mensen helpen</t>
+  </si>
+  <si>
+    <t>Woensdag:Bug fixes</t>
+  </si>
+  <si>
+    <t>Dinsdag:Bug fixes</t>
+  </si>
+  <si>
+    <t>Maandag: Admin/Bug fixes</t>
   </si>
 </sst>
 </file>
@@ -1153,29 +1162,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
     </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1241,7 @@
       <c r="P5" s="37"/>
       <c r="Q5" s="38"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1273,7 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="47"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1304,7 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1335,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="41"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1358,15 +1367,25 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="O10" s="42" t="s">
@@ -1375,20 +1394,26 @@
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
@@ -1400,19 +1425,33 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1424,7 +1463,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1435,7 +1474,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="30" t="s">
         <v>12</v>
@@ -1443,14 +1482,14 @@
       <c r="D16" s="31"/>
       <c r="E16" s="12">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1462,7 +1501,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>20</v>
@@ -1476,7 +1515,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="14"/>
       <c r="C19" s="16" t="s">
@@ -1490,7 +1529,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="14"/>
       <c r="C20" s="27" t="s">
@@ -1504,7 +1543,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
       <c r="C21" s="21" t="s">
@@ -1518,7 +1557,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
       <c r="C22" s="21" t="s">
@@ -1532,7 +1571,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
       <c r="C23" s="33" t="s">
@@ -1546,7 +1585,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="35"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="21" t="s">
@@ -1560,7 +1599,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="21" t="s">
@@ -1574,7 +1613,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
       <c r="C26" s="24" t="s">
@@ -1588,7 +1627,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="14"/>
       <c r="C27" s="8"/>
@@ -1600,7 +1639,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="14"/>
       <c r="C28" s="16" t="s">
@@ -1614,7 +1653,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="14"/>
       <c r="C29" s="27" t="s">
@@ -1628,7 +1667,7 @@
       <c r="I29" s="28"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="14"/>
       <c r="C30" s="21" t="s">
@@ -1642,7 +1681,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="14"/>
       <c r="C31" s="21" t="s">
@@ -1656,7 +1695,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="14"/>
       <c r="C32" s="33" t="s">
@@ -1670,7 +1709,7 @@
       <c r="I32" s="34"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="14"/>
       <c r="C33" s="21" t="s">
@@ -1684,7 +1723,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="14"/>
       <c r="C34" s="21" t="s">
@@ -1698,7 +1737,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="18"/>
       <c r="C35" s="24" t="s">
@@ -1712,7 +1751,7 @@
       <c r="I35" s="25"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1724,7 +1763,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="16" t="s">
@@ -1738,7 +1777,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
       <c r="C38" s="27" t="s">
@@ -1752,7 +1791,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="29"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="14"/>
       <c r="C39" s="21" t="s">
@@ -1766,7 +1805,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
       <c r="C40" s="21" t="s">
@@ -1780,7 +1819,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="14"/>
       <c r="C41" s="33" t="s">
@@ -1794,7 +1833,7 @@
       <c r="I41" s="34"/>
       <c r="J41" s="35"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
       <c r="C42" s="21" t="s">
@@ -1808,7 +1847,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
       <c r="C43" s="21" t="s">
@@ -1822,7 +1861,7 @@
       <c r="I43" s="22"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
       <c r="C44" s="24" t="s">
@@ -1836,7 +1875,7 @@
       <c r="I44" s="25"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="14"/>
       <c r="C45" s="8"/>
@@ -1848,7 +1887,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="14"/>
       <c r="C46" s="16" t="s">
@@ -1862,7 +1901,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
       <c r="C47" s="27" t="s">
@@ -1876,7 +1915,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="21" t="s">
@@ -1890,7 +1929,7 @@
       <c r="I48" s="22"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="21" t="s">
@@ -1904,7 +1943,7 @@
       <c r="I49" s="22"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="33" t="s">
@@ -1918,7 +1957,7 @@
       <c r="I50" s="34"/>
       <c r="J50" s="35"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="21" t="s">
@@ -1932,7 +1971,7 @@
       <c r="I51" s="22"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="21" t="s">
@@ -1946,7 +1985,7 @@
       <c r="I52" s="22"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="24" t="s">
@@ -1960,7 +1999,7 @@
       <c r="I53" s="25"/>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1972,7 +2011,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="16" t="s">
@@ -1986,7 +2025,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="48" t="s">
@@ -2000,7 +2039,7 @@
       <c r="I56" s="28"/>
       <c r="J56" s="29"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="49" t="s">
@@ -2014,7 +2053,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="49" t="s">
@@ -2028,7 +2067,7 @@
       <c r="I58" s="22"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C59" s="50" t="s">
         <v>71</v>
       </c>
@@ -2040,7 +2079,7 @@
       <c r="I59" s="34"/>
       <c r="J59" s="35"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C60" s="49" t="s">
         <v>72</v>
       </c>
@@ -2052,7 +2091,7 @@
       <c r="I60" s="22"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C61" s="49" t="s">
         <v>73</v>
       </c>
@@ -2064,7 +2103,7 @@
       <c r="I61" s="22"/>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C62" s="51" t="s">
         <v>74</v>
       </c>
@@ -2076,7 +2115,7 @@
       <c r="I62" s="25"/>
       <c r="J62" s="26"/>
     </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="16" t="s">
         <v>33</v>
       </c>
@@ -2088,7 +2127,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C65" s="48" t="s">
         <v>78</v>
       </c>
@@ -2100,7 +2139,7 @@
       <c r="I65" s="28"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C66" s="49" t="s">
         <v>79</v>
       </c>
@@ -2112,7 +2151,7 @@
       <c r="I66" s="22"/>
       <c r="J66" s="23"/>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C67" s="49" t="s">
         <v>80</v>
       </c>
@@ -2124,7 +2163,7 @@
       <c r="I67" s="22"/>
       <c r="J67" s="23"/>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C68" s="50" t="s">
         <v>81</v>
       </c>
@@ -2136,7 +2175,7 @@
       <c r="I68" s="34"/>
       <c r="J68" s="35"/>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C69" s="49" t="s">
         <v>82</v>
       </c>
@@ -2148,7 +2187,7 @@
       <c r="I69" s="22"/>
       <c r="J69" s="23"/>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C70" s="21" t="s">
         <v>28</v>
       </c>
@@ -2160,7 +2199,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C71" s="24" t="s">
         <v>29</v>
       </c>
@@ -2172,7 +2211,7 @@
       <c r="I71" s="25"/>
       <c r="J71" s="26"/>
     </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="16" t="s">
         <v>34</v>
       </c>
@@ -2184,9 +2223,9 @@
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C74" s="48" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
@@ -2196,9 +2235,9 @@
       <c r="I74" s="28"/>
       <c r="J74" s="29"/>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="21" t="s">
-        <v>24</v>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -2208,9 +2247,9 @@
       <c r="I75" s="22"/>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="21" t="s">
-        <v>25</v>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="49" t="s">
+        <v>83</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -2220,7 +2259,7 @@
       <c r="I76" s="22"/>
       <c r="J76" s="23"/>
     </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C77" s="33" t="s">
         <v>26</v>
       </c>
@@ -2232,7 +2271,7 @@
       <c r="I77" s="34"/>
       <c r="J77" s="35"/>
     </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C78" s="21" t="s">
         <v>27</v>
       </c>
@@ -2244,7 +2283,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="23"/>
     </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C79" s="21" t="s">
         <v>28</v>
       </c>
@@ -2256,7 +2295,7 @@
       <c r="I79" s="22"/>
       <c r="J79" s="23"/>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C80" s="24" t="s">
         <v>29</v>
       </c>
@@ -2268,7 +2307,7 @@
       <c r="I80" s="25"/>
       <c r="J80" s="26"/>
     </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="16" t="s">
         <v>59</v>
       </c>
@@ -2280,7 +2319,7 @@
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C83" s="27" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2331,7 @@
       <c r="I83" s="28"/>
       <c r="J83" s="29"/>
     </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C84" s="21" t="s">
         <v>24</v>
       </c>
@@ -2304,7 +2343,7 @@
       <c r="I84" s="22"/>
       <c r="J84" s="23"/>
     </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C85" s="21" t="s">
         <v>25</v>
       </c>
@@ -2316,7 +2355,7 @@
       <c r="I85" s="22"/>
       <c r="J85" s="23"/>
     </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C86" s="33" t="s">
         <v>26</v>
       </c>
@@ -2328,7 +2367,7 @@
       <c r="I86" s="34"/>
       <c r="J86" s="35"/>
     </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C87" s="21" t="s">
         <v>27</v>
       </c>
@@ -2340,7 +2379,7 @@
       <c r="I87" s="22"/>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C88" s="21" t="s">
         <v>28</v>
       </c>
@@ -2352,7 +2391,7 @@
       <c r="I88" s="22"/>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C89" s="24" t="s">
         <v>29</v>
       </c>
@@ -2364,7 +2403,7 @@
       <c r="I89" s="25"/>
       <c r="J89" s="26"/>
     </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="16" t="s">
         <v>35</v>
       </c>
@@ -2376,7 +2415,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C92" s="48" t="s">
         <v>23</v>
       </c>
@@ -2388,7 +2427,7 @@
       <c r="I92" s="28"/>
       <c r="J92" s="29"/>
     </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C93" s="49" t="s">
         <v>24</v>
       </c>
@@ -2400,7 +2439,7 @@
       <c r="I93" s="22"/>
       <c r="J93" s="23"/>
     </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C94" s="49" t="s">
         <v>75</v>
       </c>
@@ -2412,7 +2451,7 @@
       <c r="I94" s="22"/>
       <c r="J94" s="23"/>
     </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C95" s="50" t="s">
         <v>26</v>
       </c>
@@ -2424,7 +2463,7 @@
       <c r="I95" s="34"/>
       <c r="J95" s="35"/>
     </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C96" s="49" t="s">
         <v>76</v>
       </c>
@@ -2436,7 +2475,7 @@
       <c r="I96" s="22"/>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C97" s="49" t="s">
         <v>77</v>
       </c>
@@ -2448,7 +2487,7 @@
       <c r="I97" s="22"/>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C98" s="24" t="s">
         <v>29</v>
       </c>

--- a/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
+++ b/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6768" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7224" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lukasz" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>Dag:</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Maandag: Admin/Bug fixes</t>
+  </si>
+  <si>
+    <t>Donderdag: Technishe oplevering</t>
+  </si>
+  <si>
+    <t>Vrijdag: Testen uitvoeren</t>
   </si>
 </sst>
 </file>
@@ -782,32 +788,71 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,65 +860,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,11 +1178,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
@@ -1235,11 +1241,11 @@
       <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
@@ -1267,11 +1273,11 @@
         <v>40</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="47"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
@@ -1298,11 +1304,11 @@
       <c r="J7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
@@ -1329,11 +1335,11 @@
       <c r="J8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
@@ -1361,11 +1367,11 @@
         <v>6</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
@@ -1388,11 +1394,11 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="O10" s="42" t="s">
+      <c r="O10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
@@ -1407,8 +1413,12 @@
       <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="19"/>
@@ -1476,13 +1486,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="12">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1532,21 +1542,21 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="22"/>
@@ -1560,7 +1570,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="30" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="22"/>
@@ -1574,21 +1584,21 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="30" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="22"/>
@@ -1602,7 +1612,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="22"/>
@@ -1616,16 +1626,16 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
@@ -1656,21 +1666,21 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="30" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="22"/>
@@ -1684,7 +1694,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="22"/>
@@ -1698,21 +1708,21 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="22"/>
@@ -1726,7 +1736,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="22"/>
@@ -1740,16 +1750,16 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
@@ -1780,21 +1790,21 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="22"/>
@@ -1808,7 +1818,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="22"/>
@@ -1822,21 +1832,21 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="22"/>
@@ -1850,7 +1860,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="22"/>
@@ -1864,16 +1874,16 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
@@ -1904,21 +1914,21 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="22"/>
@@ -1932,7 +1942,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="22"/>
@@ -1946,21 +1956,21 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D51" s="22"/>
@@ -1974,7 +1984,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="22"/>
@@ -1988,16 +1998,16 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
@@ -2028,21 +2038,21 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="22"/>
@@ -2056,7 +2066,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="22"/>
@@ -2068,19 +2078,19 @@
       <c r="J58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="22"/>
@@ -2092,7 +2102,7 @@
       <c r="J60" s="23"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="22"/>
@@ -2104,16 +2114,16 @@
       <c r="J61" s="23"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="16" t="s">
@@ -2128,19 +2138,19 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="29"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="33"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="22"/>
@@ -2152,7 +2162,7 @@
       <c r="J66" s="23"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="22"/>
@@ -2164,19 +2174,19 @@
       <c r="J67" s="23"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="26"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="22"/>
@@ -2188,7 +2198,7 @@
       <c r="J69" s="23"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="22"/>
@@ -2200,16 +2210,16 @@
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="26"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="16" t="s">
@@ -2224,19 +2234,19 @@
       <c r="J73" s="8"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="48" t="s">
+      <c r="C74" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="29"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="33"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D75" s="22"/>
@@ -2248,7 +2258,7 @@
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D76" s="22"/>
@@ -2260,20 +2270,20 @@
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
+      <c r="C77" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="26"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C78" s="21" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
@@ -2284,7 +2294,7 @@
       <c r="J78" s="23"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="22"/>
@@ -2296,16 +2306,16 @@
       <c r="J79" s="23"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="26"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="16" t="s">
@@ -2320,19 +2330,19 @@
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="29"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="33"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="22"/>
@@ -2344,7 +2354,7 @@
       <c r="J84" s="23"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="22"/>
@@ -2356,19 +2366,19 @@
       <c r="J85" s="23"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="26"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="22"/>
@@ -2380,7 +2390,7 @@
       <c r="J87" s="23"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="22"/>
@@ -2392,16 +2402,16 @@
       <c r="J88" s="23"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="26"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="16" t="s">
@@ -2416,19 +2426,19 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="29"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="33"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="22"/>
@@ -2440,7 +2450,7 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D94" s="22"/>
@@ -2452,19 +2462,19 @@
       <c r="J94" s="23"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="26"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="22"/>
@@ -2476,7 +2486,7 @@
       <c r="J96" s="23"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D97" s="22"/>
@@ -2488,74 +2498,27 @@
       <c r="J97" s="23"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="26"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C16:D16"/>
@@ -2564,14 +2527,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
+++ b/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7224" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7680" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Lukasz" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>Dag:</t>
   </si>
@@ -283,12 +283,21 @@
   </si>
   <si>
     <t>Vrijdag: Testen uitvoeren</t>
+  </si>
+  <si>
+    <t>Maandag: Fouten bewerken</t>
+  </si>
+  <si>
+    <t>Dinsdag:  niks</t>
+  </si>
+  <si>
+    <t>Donderdag: Presetatie voorberijding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,98 +797,98 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1165,11 +1174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,11 +1187,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
@@ -1241,11 +1250,11 @@
       <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
@@ -1273,11 +1282,11 @@
         <v>40</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="47"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
@@ -1304,11 +1313,11 @@
       <c r="J7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="O7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="42"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
@@ -1335,11 +1344,11 @@
       <c r="J8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
@@ -1367,11 +1376,11 @@
         <v>6</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
@@ -1394,11 +1403,11 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="47"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
@@ -1486,10 +1495,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="12">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>122</v>
@@ -1542,21 +1551,21 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="22"/>
@@ -1570,7 +1579,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="22"/>
@@ -1584,21 +1593,21 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="22"/>
@@ -1612,7 +1621,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="22"/>
@@ -1626,16 +1635,16 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
@@ -1666,21 +1675,21 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="22"/>
@@ -1694,7 +1703,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="22"/>
@@ -1708,21 +1717,21 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="22"/>
@@ -1736,7 +1745,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="22"/>
@@ -1750,16 +1759,16 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
@@ -1790,21 +1799,21 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="22"/>
@@ -1818,7 +1827,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="22"/>
@@ -1832,21 +1841,21 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="22"/>
@@ -1860,7 +1869,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="22"/>
@@ -1874,16 +1883,16 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
@@ -1914,21 +1923,21 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="33"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="22"/>
@@ -1942,7 +1951,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D49" s="22"/>
@@ -1956,21 +1965,21 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D51" s="22"/>
@@ -1984,7 +1993,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="22"/>
@@ -1998,16 +2007,16 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
@@ -2038,21 +2047,21 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="33"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="49" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="22"/>
@@ -2066,7 +2075,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="22"/>
@@ -2078,19 +2087,19 @@
       <c r="J58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="22"/>
@@ -2102,7 +2111,7 @@
       <c r="J60" s="23"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="49" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="22"/>
@@ -2114,16 +2123,16 @@
       <c r="J61" s="23"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="16" t="s">
@@ -2138,19 +2147,19 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="33"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="49" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="22"/>
@@ -2162,7 +2171,7 @@
       <c r="J66" s="23"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="49" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="22"/>
@@ -2174,19 +2183,19 @@
       <c r="J67" s="23"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="35"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="22"/>
@@ -2198,7 +2207,7 @@
       <c r="J69" s="23"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="22"/>
@@ -2210,16 +2219,16 @@
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="16" t="s">
@@ -2234,19 +2243,19 @@
       <c r="J73" s="8"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="33"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="49" t="s">
         <v>84</v>
       </c>
       <c r="D75" s="22"/>
@@ -2258,7 +2267,7 @@
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="49" t="s">
         <v>83</v>
       </c>
       <c r="D76" s="22"/>
@@ -2270,19 +2279,19 @@
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="26"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="49" t="s">
         <v>87</v>
       </c>
       <c r="D78" s="22"/>
@@ -2294,7 +2303,7 @@
       <c r="J78" s="23"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="22"/>
@@ -2306,16 +2315,16 @@
       <c r="J79" s="23"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="16" t="s">
@@ -2330,20 +2339,20 @@
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="33"/>
+      <c r="C83" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="29"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="30" t="s">
-        <v>24</v>
+      <c r="C84" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -2354,7 +2363,7 @@
       <c r="J84" s="23"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="22"/>
@@ -2366,19 +2375,19 @@
       <c r="J85" s="23"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="26"/>
+      <c r="C86" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="35"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="22"/>
@@ -2390,7 +2399,7 @@
       <c r="J87" s="23"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="22"/>
@@ -2402,16 +2411,16 @@
       <c r="J88" s="23"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="16" t="s">
@@ -2426,19 +2435,19 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="33"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="29"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="22"/>
@@ -2450,7 +2459,7 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="49" t="s">
         <v>75</v>
       </c>
       <c r="D94" s="22"/>
@@ -2462,19 +2471,19 @@
       <c r="J94" s="23"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="26"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="35"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="49" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="22"/>
@@ -2486,7 +2495,7 @@
       <c r="J96" s="23"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="49" t="s">
         <v>77</v>
       </c>
       <c r="D97" s="22"/>
@@ -2498,19 +2507,82 @@
       <c r="J97" s="23"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C29:J29"/>
@@ -2519,69 +2591,6 @@
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
+++ b/Documentation/Documentation_made/logboeken/urenlijst_met_logboek_lukasz.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7680" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="8136" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lukasz" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,9 +102,6 @@
     <t>Donderdag:</t>
   </si>
   <si>
-    <t>Vrijdag:</t>
-  </si>
-  <si>
     <t>Zaterdag:</t>
   </si>
   <si>
@@ -292,12 +289,15 @@
   </si>
   <si>
     <t>Donderdag: Presetatie voorberijding</t>
+  </si>
+  <si>
+    <t>Vrijdag: Reflectieverslag en logbook bijgewerkt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -797,32 +797,71 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -830,65 +869,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1174,11 +1174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,11 +1187,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="7">
         <v>3</v>
@@ -1245,16 +1245,16 @@
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="O5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="38"/>
+      <c r="O5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
@@ -1267,26 +1267,26 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="O6" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="47"/>
+      <c r="O6" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
@@ -1299,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7">
         <v>3</v>
@@ -1308,16 +1308,16 @@
         <v>3</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
+        <v>39</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7">
         <v>3</v>
@@ -1339,16 +1339,16 @@
         <v>3</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
+        <v>39</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
@@ -1376,11 +1376,11 @@
         <v>6</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="O9" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
+      <c r="O9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="O10" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="O10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
@@ -1436,11 +1436,19 @@
       <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
@@ -1495,13 +1503,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="12">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1551,22 +1559,22 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
+      <c r="C20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="21" t="s">
-        <v>42</v>
+      <c r="C21" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -1579,8 +1587,8 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="21" t="s">
-        <v>43</v>
+      <c r="C22" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -1593,22 +1601,22 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="C23" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="21" t="s">
-        <v>44</v>
+      <c r="C24" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -1621,8 +1629,8 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="21" t="s">
-        <v>47</v>
+      <c r="C25" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -1635,16 +1643,16 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="C26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
@@ -1675,22 +1683,22 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
+      <c r="C29" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="21" t="s">
-        <v>49</v>
+      <c r="C30" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -1703,8 +1711,8 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="21" t="s">
-        <v>64</v>
+      <c r="C31" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -1717,22 +1725,22 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="C32" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="21" t="s">
-        <v>51</v>
+      <c r="C33" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -1745,8 +1753,8 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="21" t="s">
-        <v>52</v>
+      <c r="C34" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -1759,16 +1767,16 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
+      <c r="C35" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
@@ -1786,7 +1794,7 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1799,22 +1807,22 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
+      <c r="C38" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="21" t="s">
-        <v>56</v>
+      <c r="C39" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -1827,7 +1835,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="22"/>
@@ -1841,22 +1849,22 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="C41" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="21" t="s">
-        <v>60</v>
+      <c r="C42" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -1869,8 +1877,8 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="21" t="s">
-        <v>28</v>
+      <c r="C43" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -1883,16 +1891,16 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
+      <c r="C44" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
@@ -1910,7 +1918,7 @@
       <c r="A46" s="8"/>
       <c r="B46" s="14"/>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1923,22 +1931,22 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
+      <c r="C47" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="21" t="s">
-        <v>63</v>
+      <c r="C48" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -1951,8 +1959,8 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="21" t="s">
-        <v>65</v>
+      <c r="C49" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -1965,22 +1973,22 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="C50" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="21" t="s">
-        <v>67</v>
+      <c r="C51" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -1993,8 +2001,8 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="21" t="s">
-        <v>28</v>
+      <c r="C52" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -2007,16 +2015,16 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
+      <c r="C53" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
@@ -2034,7 +2042,7 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2047,22 +2055,22 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
+      <c r="C56" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="49" t="s">
-        <v>69</v>
+      <c r="C57" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -2075,8 +2083,8 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="49" t="s">
-        <v>68</v>
+      <c r="C58" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -2087,20 +2095,20 @@
       <c r="J58" s="23"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="49" t="s">
-        <v>72</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
@@ -2111,8 +2119,8 @@
       <c r="J60" s="23"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="49" t="s">
-        <v>73</v>
+      <c r="C61" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
@@ -2123,20 +2131,20 @@
       <c r="J61" s="23"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26"/>
+      <c r="C62" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -2147,20 +2155,20 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="33"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="29"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="49" t="s">
-        <v>79</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
@@ -2171,8 +2179,8 @@
       <c r="J66" s="23"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="49" t="s">
-        <v>80</v>
+      <c r="C67" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -2183,20 +2191,20 @@
       <c r="J67" s="23"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="26"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="35"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="49" t="s">
-        <v>82</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -2207,8 +2215,8 @@
       <c r="J69" s="23"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="21" t="s">
-        <v>28</v>
+      <c r="C70" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -2219,20 +2227,20 @@
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="26"/>
+      <c r="C71" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -2243,20 +2251,20 @@
       <c r="J73" s="8"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="29"/>
+      <c r="C74" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="33"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="49" t="s">
-        <v>84</v>
+      <c r="C75" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
@@ -2267,8 +2275,8 @@
       <c r="J75" s="23"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="49" t="s">
-        <v>83</v>
+      <c r="C76" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -2279,20 +2287,20 @@
       <c r="J76" s="23"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="26"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="49" t="s">
-        <v>87</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
@@ -2303,8 +2311,8 @@
       <c r="J78" s="23"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="21" t="s">
-        <v>28</v>
+      <c r="C79" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
@@ -2315,20 +2323,20 @@
       <c r="J79" s="23"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="26"/>
+      <c r="C80" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -2339,20 +2347,20 @@
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="48" t="s">
+      <c r="C83" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="33"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="29"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="49" t="s">
-        <v>89</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -2363,7 +2371,7 @@
       <c r="J84" s="23"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="22"/>
@@ -2375,20 +2383,20 @@
       <c r="J85" s="23"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="35"/>
+      <c r="C86" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="26"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C87" s="21" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
@@ -2399,8 +2407,8 @@
       <c r="J87" s="23"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="21" t="s">
-        <v>28</v>
+      <c r="C88" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="22"/>
@@ -2411,20 +2419,20 @@
       <c r="J88" s="23"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="26"/>
+      <c r="C89" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -2435,19 +2443,19 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="29"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="33"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="22"/>
@@ -2459,8 +2467,8 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="49" t="s">
-        <v>75</v>
+      <c r="C94" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="22"/>
@@ -2471,20 +2479,20 @@
       <c r="J94" s="23"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="26"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="49" t="s">
-        <v>76</v>
+      <c r="C96" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="22"/>
@@ -2495,8 +2503,8 @@
       <c r="J96" s="23"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="49" t="s">
-        <v>77</v>
+      <c r="C97" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
@@ -2507,74 +2515,27 @@
       <c r="J97" s="23"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="26"/>
+      <c r="C98" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C16:D16"/>
@@ -2583,14 +2544,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
